--- a/data/panelapp/uk/Possible mitochondrial disorder - nuclear genes.xlsx
+++ b/data/panelapp/uk/Possible mitochondrial disorder - nuclear genes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E378"/>
+  <dimension ref="A1:F378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293872</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293884</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293888</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293890</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293893</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293896</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293899</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293901</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293904</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293907</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293909</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293912</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293914</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293917</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293919</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293922</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293925</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293927</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293930</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293932</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293935</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293938</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293940</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293943</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293946</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293948</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293951</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293954</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293956</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293959</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293961</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293964</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293967</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293970</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293972</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293975</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293977</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293980</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293983</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293985</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293988</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293990</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293993</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293996</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.293998</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294001</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294003</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294006</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294008</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294011</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294013</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294016</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1779,6 +2044,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294019</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1804,6 +2074,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294022</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1829,6 +2104,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294024</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1854,6 +2134,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294027</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1879,6 +2164,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294029</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1904,6 +2194,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294032</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1929,6 +2224,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294034</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1954,6 +2254,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294037</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1979,6 +2284,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294039</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2004,6 +2314,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294042</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2029,6 +2344,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294044</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2054,6 +2374,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294047</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2079,6 +2404,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294051</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2104,6 +2434,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294053</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2129,6 +2464,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294056</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2154,6 +2494,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294059</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2179,6 +2524,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294061</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2204,6 +2554,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294064</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2229,6 +2584,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294066</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2254,6 +2614,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294069</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2279,6 +2644,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294071</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2304,6 +2674,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294074</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2329,6 +2704,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294076</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2354,6 +2734,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294079</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2379,6 +2764,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294083</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2404,6 +2794,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294086</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2429,6 +2824,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294089</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2454,6 +2854,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294092</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2479,6 +2884,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294094</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2504,6 +2914,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294097</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2529,6 +2944,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294099</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2554,6 +2974,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294102</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2579,6 +3004,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294104</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2604,6 +3034,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294107</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2629,6 +3064,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294109</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2654,6 +3094,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294112</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2679,6 +3124,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294115</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2704,6 +3154,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294117</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2729,6 +3184,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294120</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2754,6 +3214,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294122</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2779,6 +3244,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294126</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2804,6 +3274,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294129</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2829,6 +3304,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294132</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2854,6 +3334,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294134</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2879,6 +3364,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294137</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2904,6 +3394,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294139</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2929,6 +3424,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294142</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2954,6 +3454,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294144</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2979,6 +3484,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294147</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3004,6 +3514,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294150</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3029,6 +3544,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294152</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3054,6 +3574,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294155</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3079,6 +3604,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294157</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3104,6 +3634,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294160</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3129,6 +3664,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294162</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3154,6 +3694,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294165</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3179,6 +3724,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294169</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3204,6 +3754,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294172</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3229,6 +3784,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294175</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3254,6 +3814,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294177</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3279,6 +3844,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294180</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3304,6 +3874,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294182</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3329,6 +3904,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294185</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3354,6 +3934,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294187</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3379,6 +3964,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294190</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3404,6 +3994,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294192</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3429,6 +4024,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294195</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3454,6 +4054,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294198</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3479,6 +4084,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294200</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3504,6 +4114,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294203</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3529,6 +4144,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294205</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3554,6 +4174,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294208</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3579,6 +4204,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294211</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3604,6 +4234,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294214</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3629,6 +4264,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294216</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3654,6 +4294,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294219</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3679,6 +4324,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294223</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3704,6 +4354,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294227</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3729,6 +4384,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294230</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3754,6 +4414,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294232</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3779,6 +4444,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294235</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3804,6 +4474,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294237</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3829,6 +4504,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294240</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3854,6 +4534,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294243</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3879,6 +4564,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294245</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3904,6 +4594,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294248</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3929,6 +4624,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294251</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3954,6 +4654,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294253</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3979,6 +4684,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294256</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4004,6 +4714,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294258</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4029,6 +4744,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294261</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4054,6 +4774,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294264</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4079,6 +4804,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294266</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4104,6 +4834,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294269</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4129,6 +4864,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294271</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4154,6 +4894,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294274</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4179,6 +4924,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294276</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4204,6 +4954,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294279</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4229,6 +4984,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294282</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -4254,6 +5014,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294284</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4279,6 +5044,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294287</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4304,6 +5074,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294290</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4329,6 +5104,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294292</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4354,6 +5134,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294295</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4379,6 +5164,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294297</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -4404,6 +5194,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294300</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4429,6 +5224,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294303</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4454,6 +5254,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294305</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4479,6 +5284,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294308</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -4504,6 +5314,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294310</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4529,6 +5344,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294313</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -4554,6 +5374,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294316</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4579,6 +5404,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294318</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4604,6 +5434,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294321</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4629,6 +5464,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294323</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4654,6 +5494,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294326</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4679,6 +5524,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294328</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4704,6 +5554,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294331</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4729,6 +5584,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294334</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4754,6 +5614,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294336</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4779,6 +5644,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294340</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4804,6 +5674,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294343</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4829,6 +5704,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294346</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4854,6 +5734,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294349</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4879,6 +5764,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294352</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4904,6 +5794,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294354</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4929,6 +5824,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294357</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4954,6 +5854,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294359</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4979,6 +5884,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294362</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -5004,6 +5914,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294364</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -5029,6 +5944,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294367</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -5054,6 +5974,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294370</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -5079,6 +6004,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294372</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -5104,6 +6034,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294375</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -5129,6 +6064,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294377</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -5154,6 +6094,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294380</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -5179,6 +6124,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294382</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -5204,6 +6154,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294385</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -5229,6 +6184,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294387</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -5254,6 +6214,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294390</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -5279,6 +6244,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294392</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -5304,6 +6274,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294395</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -5329,6 +6304,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294398</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -5354,6 +6334,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294400</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -5379,6 +6364,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294403</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -5404,6 +6394,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294405</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -5429,6 +6424,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294408</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -5454,6 +6454,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294410</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -5479,6 +6484,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294413</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -5504,6 +6514,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294416</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -5529,6 +6544,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294419</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -5554,6 +6574,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294421</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -5579,6 +6604,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294424</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -5604,6 +6634,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294427</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -5629,6 +6664,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294429</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -5654,6 +6694,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294432</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -5679,6 +6724,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294434</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -5704,6 +6754,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294437</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -5729,6 +6784,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294440</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -5754,6 +6814,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294442</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -5779,6 +6844,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294445</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -5804,6 +6874,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294448</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -5829,6 +6904,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294451</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -5854,6 +6934,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294453</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -5879,6 +6964,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294456</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -5904,6 +6994,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294458</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -5929,6 +7024,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294461</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -5954,6 +7054,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294463</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5979,6 +7084,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294466</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -6004,6 +7114,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294468</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -6029,6 +7144,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294471</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -6054,6 +7174,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294474</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -6079,6 +7204,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294476</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -6104,6 +7234,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294478</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -6129,6 +7264,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294481</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -6154,6 +7294,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294484</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -6179,6 +7324,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294486</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -6204,6 +7354,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294489</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -6229,6 +7384,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294491</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -6254,6 +7414,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294494</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -6279,6 +7444,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294497</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -6304,6 +7474,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294500</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -6329,6 +7504,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294503</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -6354,6 +7534,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294505</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -6379,6 +7564,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294508</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -6404,6 +7594,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294510</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -6429,6 +7624,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294513</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -6454,6 +7654,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294516</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -6479,6 +7684,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294518</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -6504,6 +7714,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294521</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -6529,6 +7744,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294523</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -6554,6 +7774,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294526</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -6579,6 +7804,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294528</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -6604,6 +7834,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294531</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -6629,6 +7864,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294533</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -6654,6 +7894,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294536</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -6679,6 +7924,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294538</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -6704,6 +7954,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294541</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -6729,6 +7984,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294543</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -6754,6 +8014,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294546</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -6779,6 +8044,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294548</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -6804,6 +8074,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294551</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -6829,6 +8104,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294554</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -6854,6 +8134,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294556</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -6879,6 +8164,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294559</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -6904,6 +8194,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294561</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -6929,6 +8224,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294564</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -6954,6 +8254,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294566</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -6979,6 +8284,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294569</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -7004,6 +8314,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294571</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -7029,6 +8344,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294574</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -7054,6 +8374,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294577</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -7079,6 +8404,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294579</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -7104,6 +8434,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294582</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -7129,6 +8464,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294584</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -7154,6 +8494,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294587</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -7179,6 +8524,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294590</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -7204,6 +8554,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294592</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -7229,6 +8584,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294595</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -7254,6 +8614,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294597</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -7279,6 +8644,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294600</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -7304,6 +8674,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294602</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -7329,6 +8704,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294605</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -7354,6 +8734,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294608</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -7379,6 +8764,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294610</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -7404,6 +8794,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294613</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -7429,6 +8824,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294615</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -7454,6 +8854,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294618</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -7479,6 +8884,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294620</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -7504,6 +8914,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294623</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -7529,6 +8944,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294625</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -7554,6 +8974,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294628</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -7579,6 +9004,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294630</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -7604,6 +9034,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294633</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -7629,6 +9064,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294635</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -7654,6 +9094,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294638</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -7679,6 +9124,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294640</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -7704,6 +9154,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294643</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -7729,6 +9184,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294646</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -7754,6 +9214,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294648</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -7779,6 +9244,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294651</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -7804,6 +9274,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294653</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -7829,6 +9304,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294656</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -7854,6 +9334,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294658</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -7879,6 +9364,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294661</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -7904,6 +9394,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294664</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -7929,6 +9424,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294666</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -7954,6 +9454,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294669</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -7979,6 +9484,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294671</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -8004,6 +9514,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294674</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -8029,6 +9544,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294676</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -8054,6 +9574,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294679</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -8079,6 +9604,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294681</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -8104,6 +9634,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294684</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -8129,6 +9664,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294687</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -8154,6 +9694,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294689</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -8179,6 +9724,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294694</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -8204,6 +9754,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294697</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -8229,6 +9784,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294700</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -8254,6 +9814,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294702</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -8279,6 +9844,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294705</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -8304,6 +9874,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294708</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -8329,6 +9904,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294710</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -8354,6 +9934,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294713</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -8379,6 +9964,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294716</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -8404,6 +9994,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294718</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -8429,6 +10024,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294721</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -8454,6 +10054,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294723</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -8479,6 +10084,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294726</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -8504,6 +10114,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294729</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -8529,6 +10144,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294731</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -8554,6 +10174,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294734</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -8579,6 +10204,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294736</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -8604,6 +10234,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294739</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -8629,6 +10264,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294741</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -8654,6 +10294,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294744</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -8679,6 +10324,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294746</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -8704,6 +10354,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294749</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -8729,6 +10384,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294751</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -8754,6 +10414,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294754</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -8779,6 +10444,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294757</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -8804,6 +10474,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294759</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -8829,6 +10504,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294762</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -8854,6 +10534,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294764</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -8879,6 +10564,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294767</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -8904,6 +10594,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294769</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -8929,6 +10624,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294772</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -8954,6 +10654,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294774</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -8979,6 +10684,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294777</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -9004,6 +10714,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294780</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -9029,6 +10744,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294782</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -9054,6 +10774,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294785</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -9079,6 +10804,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294787</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -9104,6 +10834,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294790</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -9129,6 +10864,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294792</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -9154,6 +10894,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294795</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -9179,6 +10924,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294798</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -9204,6 +10954,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294800</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -9229,6 +10984,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294803</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -9254,6 +11014,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294805</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -9279,6 +11044,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294809</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -9304,6 +11074,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294812</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -9329,6 +11104,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294815</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -9354,6 +11134,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294817</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -9379,6 +11164,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294820</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -9404,6 +11194,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294822</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -9429,6 +11224,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294825</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -9454,6 +11254,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294827</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -9479,6 +11284,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294830</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -9504,6 +11314,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294833</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -9529,6 +11344,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294835</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -9554,6 +11374,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294838</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -9579,6 +11404,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294840</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -9604,6 +11434,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294843</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -9629,6 +11464,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294845</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -9654,6 +11494,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294848</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -9679,6 +11524,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294851</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -9704,6 +11554,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294853</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -9729,6 +11584,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294856</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -9754,6 +11614,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294858</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -9779,6 +11644,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294861</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -9804,6 +11674,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294863</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -9829,6 +11704,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294866</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -9854,6 +11734,11 @@
           <t>Possible mitochondrial disorder - nuclear genes</t>
         </is>
       </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294868</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -9877,6 +11762,11 @@
       <c r="E378" t="inlineStr">
         <is>
           <t>Possible mitochondrial disorder - nuclear genes</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:41:43.294871</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/uk/Possible mitochondrial disorder - nuclear genes.xlsx
+++ b/data/panelapp/uk/Possible mitochondrial disorder - nuclear genes.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293872</t>
+          <t>2021-10-05 14:22:16.288626</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293884</t>
+          <t>2021-10-05 14:22:16.288634</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293888</t>
+          <t>2021-10-05 14:22:16.288638</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293890</t>
+          <t>2021-10-05 14:22:16.288640</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293893</t>
+          <t>2021-10-05 14:22:16.288643</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293896</t>
+          <t>2021-10-05 14:22:16.288645</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293899</t>
+          <t>2021-10-05 14:22:16.288648</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293901</t>
+          <t>2021-10-05 14:22:16.288650</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293904</t>
+          <t>2021-10-05 14:22:16.288653</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293907</t>
+          <t>2021-10-05 14:22:16.288655</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293909</t>
+          <t>2021-10-05 14:22:16.288657</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293912</t>
+          <t>2021-10-05 14:22:16.288659</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293914</t>
+          <t>2021-10-05 14:22:16.288662</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293917</t>
+          <t>2021-10-05 14:22:16.288664</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293919</t>
+          <t>2021-10-05 14:22:16.288667</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293922</t>
+          <t>2021-10-05 14:22:16.288669</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293925</t>
+          <t>2021-10-05 14:22:16.288672</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293927</t>
+          <t>2021-10-05 14:22:16.288674</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293930</t>
+          <t>2021-10-05 14:22:16.288676</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293932</t>
+          <t>2021-10-05 14:22:16.288679</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293935</t>
+          <t>2021-10-05 14:22:16.288681</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293938</t>
+          <t>2021-10-05 14:22:16.288684</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293940</t>
+          <t>2021-10-05 14:22:16.288686</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293943</t>
+          <t>2021-10-05 14:22:16.288688</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293946</t>
+          <t>2021-10-05 14:22:16.288691</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293948</t>
+          <t>2021-10-05 14:22:16.288693</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293951</t>
+          <t>2021-10-05 14:22:16.288696</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293954</t>
+          <t>2021-10-05 14:22:16.288698</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293956</t>
+          <t>2021-10-05 14:22:16.288700</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293959</t>
+          <t>2021-10-05 14:22:16.288703</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293961</t>
+          <t>2021-10-05 14:22:16.288705</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293964</t>
+          <t>2021-10-05 14:22:16.288708</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293967</t>
+          <t>2021-10-05 14:22:16.288710</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293970</t>
+          <t>2021-10-05 14:22:16.288713</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293972</t>
+          <t>2021-10-05 14:22:16.288715</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293975</t>
+          <t>2021-10-05 14:22:16.288718</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293977</t>
+          <t>2021-10-05 14:22:16.288720</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293980</t>
+          <t>2021-10-05 14:22:16.288722</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293983</t>
+          <t>2021-10-05 14:22:16.288725</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293985</t>
+          <t>2021-10-05 14:22:16.288727</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293988</t>
+          <t>2021-10-05 14:22:16.288729</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293990</t>
+          <t>2021-10-05 14:22:16.288732</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293993</t>
+          <t>2021-10-05 14:22:16.288734</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293996</t>
+          <t>2021-10-05 14:22:16.288736</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.293998</t>
+          <t>2021-10-05 14:22:16.288739</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294001</t>
+          <t>2021-10-05 14:22:16.288741</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294003</t>
+          <t>2021-10-05 14:22:16.288744</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294006</t>
+          <t>2021-10-05 14:22:16.288746</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294008</t>
+          <t>2021-10-05 14:22:16.288748</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294011</t>
+          <t>2021-10-05 14:22:16.288750</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294013</t>
+          <t>2021-10-05 14:22:16.288753</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294016</t>
+          <t>2021-10-05 14:22:16.288755</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294019</t>
+          <t>2021-10-05 14:22:16.288758</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294022</t>
+          <t>2021-10-05 14:22:16.288760</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294024</t>
+          <t>2021-10-05 14:22:16.288763</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294027</t>
+          <t>2021-10-05 14:22:16.288765</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294029</t>
+          <t>2021-10-05 14:22:16.288767</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294032</t>
+          <t>2021-10-05 14:22:16.288770</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294034</t>
+          <t>2021-10-05 14:22:16.288772</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294037</t>
+          <t>2021-10-05 14:22:16.288774</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294039</t>
+          <t>2021-10-05 14:22:16.288777</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294042</t>
+          <t>2021-10-05 14:22:16.288779</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294044</t>
+          <t>2021-10-05 14:22:16.288781</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294047</t>
+          <t>2021-10-05 14:22:16.288784</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294051</t>
+          <t>2021-10-05 14:22:16.288788</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294053</t>
+          <t>2021-10-05 14:22:16.288790</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294056</t>
+          <t>2021-10-05 14:22:16.288793</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294059</t>
+          <t>2021-10-05 14:22:16.288795</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294061</t>
+          <t>2021-10-05 14:22:16.288797</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294064</t>
+          <t>2021-10-05 14:22:16.288800</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294066</t>
+          <t>2021-10-05 14:22:16.288802</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294069</t>
+          <t>2021-10-05 14:22:16.288804</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294071</t>
+          <t>2021-10-05 14:22:16.288807</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294074</t>
+          <t>2021-10-05 14:22:16.288809</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294076</t>
+          <t>2021-10-05 14:22:16.288812</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294079</t>
+          <t>2021-10-05 14:22:16.288814</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294083</t>
+          <t>2021-10-05 14:22:16.288818</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294086</t>
+          <t>2021-10-05 14:22:16.288821</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294089</t>
+          <t>2021-10-05 14:22:16.288824</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294092</t>
+          <t>2021-10-05 14:22:16.288826</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294094</t>
+          <t>2021-10-05 14:22:16.288828</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294097</t>
+          <t>2021-10-05 14:22:16.288831</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294099</t>
+          <t>2021-10-05 14:22:16.288833</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294102</t>
+          <t>2021-10-05 14:22:16.288836</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294104</t>
+          <t>2021-10-05 14:22:16.288838</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294107</t>
+          <t>2021-10-05 14:22:16.288841</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294109</t>
+          <t>2021-10-05 14:22:16.288843</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294112</t>
+          <t>2021-10-05 14:22:16.288845</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294115</t>
+          <t>2021-10-05 14:22:16.288848</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294117</t>
+          <t>2021-10-05 14:22:16.288850</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294120</t>
+          <t>2021-10-05 14:22:16.288853</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294122</t>
+          <t>2021-10-05 14:22:16.288855</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294126</t>
+          <t>2021-10-05 14:22:16.288858</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294129</t>
+          <t>2021-10-05 14:22:16.288861</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294132</t>
+          <t>2021-10-05 14:22:16.288863</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294134</t>
+          <t>2021-10-05 14:22:16.288866</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294137</t>
+          <t>2021-10-05 14:22:16.288868</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294139</t>
+          <t>2021-10-05 14:22:16.288871</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294142</t>
+          <t>2021-10-05 14:22:16.288873</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294144</t>
+          <t>2021-10-05 14:22:16.288875</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294147</t>
+          <t>2021-10-05 14:22:16.288878</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294150</t>
+          <t>2021-10-05 14:22:16.288880</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294152</t>
+          <t>2021-10-05 14:22:16.288882</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294155</t>
+          <t>2021-10-05 14:22:16.288885</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294157</t>
+          <t>2021-10-05 14:22:16.288887</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294160</t>
+          <t>2021-10-05 14:22:16.288890</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294162</t>
+          <t>2021-10-05 14:22:16.288892</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294165</t>
+          <t>2021-10-05 14:22:16.288894</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294169</t>
+          <t>2021-10-05 14:22:16.288899</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294172</t>
+          <t>2021-10-05 14:22:16.288902</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294175</t>
+          <t>2021-10-05 14:22:16.288904</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294177</t>
+          <t>2021-10-05 14:22:16.288907</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294180</t>
+          <t>2021-10-05 14:22:16.288909</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294182</t>
+          <t>2021-10-05 14:22:16.288911</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294185</t>
+          <t>2021-10-05 14:22:16.288914</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294187</t>
+          <t>2021-10-05 14:22:16.288916</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294190</t>
+          <t>2021-10-05 14:22:16.288919</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294192</t>
+          <t>2021-10-05 14:22:16.288921</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294195</t>
+          <t>2021-10-05 14:22:16.288923</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294198</t>
+          <t>2021-10-05 14:22:16.288926</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294200</t>
+          <t>2021-10-05 14:22:16.288928</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294203</t>
+          <t>2021-10-05 14:22:16.288931</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294205</t>
+          <t>2021-10-05 14:22:16.288933</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294208</t>
+          <t>2021-10-05 14:22:16.288935</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294211</t>
+          <t>2021-10-05 14:22:16.288938</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294214</t>
+          <t>2021-10-05 14:22:16.288940</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294216</t>
+          <t>2021-10-05 14:22:16.288943</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294219</t>
+          <t>2021-10-05 14:22:16.288945</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294223</t>
+          <t>2021-10-05 14:22:16.288949</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294227</t>
+          <t>2021-10-05 14:22:16.288952</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294230</t>
+          <t>2021-10-05 14:22:16.288955</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294232</t>
+          <t>2021-10-05 14:22:16.288957</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294235</t>
+          <t>2021-10-05 14:22:16.288959</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294237</t>
+          <t>2021-10-05 14:22:16.288962</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294240</t>
+          <t>2021-10-05 14:22:16.288964</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294243</t>
+          <t>2021-10-05 14:22:16.288966</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294245</t>
+          <t>2021-10-05 14:22:16.288969</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294248</t>
+          <t>2021-10-05 14:22:16.288972</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294251</t>
+          <t>2021-10-05 14:22:16.288974</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294253</t>
+          <t>2021-10-05 14:22:16.288976</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294256</t>
+          <t>2021-10-05 14:22:16.288979</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294258</t>
+          <t>2021-10-05 14:22:16.288982</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294261</t>
+          <t>2021-10-05 14:22:16.288984</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294264</t>
+          <t>2021-10-05 14:22:16.288986</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294266</t>
+          <t>2021-10-05 14:22:16.288989</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294269</t>
+          <t>2021-10-05 14:22:16.288991</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294271</t>
+          <t>2021-10-05 14:22:16.288994</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294274</t>
+          <t>2021-10-05 14:22:16.288996</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294276</t>
+          <t>2021-10-05 14:22:16.289020</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294279</t>
+          <t>2021-10-05 14:22:16.289023</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294282</t>
+          <t>2021-10-05 14:22:16.289025</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294284</t>
+          <t>2021-10-05 14:22:16.289028</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294287</t>
+          <t>2021-10-05 14:22:16.289030</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294290</t>
+          <t>2021-10-05 14:22:16.289033</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294292</t>
+          <t>2021-10-05 14:22:16.289035</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294295</t>
+          <t>2021-10-05 14:22:16.289037</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294297</t>
+          <t>2021-10-05 14:22:16.289040</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294300</t>
+          <t>2021-10-05 14:22:16.289042</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294303</t>
+          <t>2021-10-05 14:22:16.289044</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294305</t>
+          <t>2021-10-05 14:22:16.289047</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294308</t>
+          <t>2021-10-05 14:22:16.289049</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294310</t>
+          <t>2021-10-05 14:22:16.289051</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294313</t>
+          <t>2021-10-05 14:22:16.289054</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294316</t>
+          <t>2021-10-05 14:22:16.289056</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294318</t>
+          <t>2021-10-05 14:22:16.289058</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294321</t>
+          <t>2021-10-05 14:22:16.289061</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294323</t>
+          <t>2021-10-05 14:22:16.289063</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294326</t>
+          <t>2021-10-05 14:22:16.289065</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294328</t>
+          <t>2021-10-05 14:22:16.289068</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294331</t>
+          <t>2021-10-05 14:22:16.289070</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294334</t>
+          <t>2021-10-05 14:22:16.289072</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294336</t>
+          <t>2021-10-05 14:22:16.289075</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294340</t>
+          <t>2021-10-05 14:22:16.289079</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294343</t>
+          <t>2021-10-05 14:22:16.289082</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294346</t>
+          <t>2021-10-05 14:22:16.289084</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294349</t>
+          <t>2021-10-05 14:22:16.289087</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294352</t>
+          <t>2021-10-05 14:22:16.289089</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294354</t>
+          <t>2021-10-05 14:22:16.289091</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294357</t>
+          <t>2021-10-05 14:22:16.289093</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294359</t>
+          <t>2021-10-05 14:22:16.289096</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294362</t>
+          <t>2021-10-05 14:22:16.289098</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294364</t>
+          <t>2021-10-05 14:22:16.289100</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294367</t>
+          <t>2021-10-05 14:22:16.289103</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294370</t>
+          <t>2021-10-05 14:22:16.289105</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294372</t>
+          <t>2021-10-05 14:22:16.289107</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294375</t>
+          <t>2021-10-05 14:22:16.289110</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6067,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294377</t>
+          <t>2021-10-05 14:22:16.289112</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294380</t>
+          <t>2021-10-05 14:22:16.289115</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294382</t>
+          <t>2021-10-05 14:22:16.289117</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294385</t>
+          <t>2021-10-05 14:22:16.289119</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6187,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294387</t>
+          <t>2021-10-05 14:22:16.289121</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6217,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294390</t>
+          <t>2021-10-05 14:22:16.289124</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294392</t>
+          <t>2021-10-05 14:22:16.289126</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294395</t>
+          <t>2021-10-05 14:22:16.289128</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6307,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294398</t>
+          <t>2021-10-05 14:22:16.289131</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6337,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294400</t>
+          <t>2021-10-05 14:22:16.289133</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294403</t>
+          <t>2021-10-05 14:22:16.289135</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6397,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294405</t>
+          <t>2021-10-05 14:22:16.289137</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6427,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294408</t>
+          <t>2021-10-05 14:22:16.289140</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294410</t>
+          <t>2021-10-05 14:22:16.289142</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6487,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294413</t>
+          <t>2021-10-05 14:22:16.289145</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294416</t>
+          <t>2021-10-05 14:22:16.289147</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6547,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294419</t>
+          <t>2021-10-05 14:22:16.289149</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6577,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294421</t>
+          <t>2021-10-05 14:22:16.289152</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6607,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294424</t>
+          <t>2021-10-05 14:22:16.289154</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294427</t>
+          <t>2021-10-05 14:22:16.289156</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6667,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294429</t>
+          <t>2021-10-05 14:22:16.289158</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294432</t>
+          <t>2021-10-05 14:22:16.289161</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6727,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294434</t>
+          <t>2021-10-05 14:22:16.289163</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6757,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294437</t>
+          <t>2021-10-05 14:22:16.289166</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6787,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294440</t>
+          <t>2021-10-05 14:22:16.289168</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6817,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294442</t>
+          <t>2021-10-05 14:22:16.289170</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6847,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294445</t>
+          <t>2021-10-05 14:22:16.289173</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6877,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294448</t>
+          <t>2021-10-05 14:22:16.289175</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6907,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294451</t>
+          <t>2021-10-05 14:22:16.289177</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6937,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294453</t>
+          <t>2021-10-05 14:22:16.289180</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6967,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294456</t>
+          <t>2021-10-05 14:22:16.289182</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6997,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294458</t>
+          <t>2021-10-05 14:22:16.289184</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7027,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294461</t>
+          <t>2021-10-05 14:22:16.289187</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7057,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294463</t>
+          <t>2021-10-05 14:22:16.289189</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7087,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294466</t>
+          <t>2021-10-05 14:22:16.289192</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7117,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294468</t>
+          <t>2021-10-05 14:22:16.289194</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7147,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294471</t>
+          <t>2021-10-05 14:22:16.289196</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7177,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294474</t>
+          <t>2021-10-05 14:22:16.289199</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7207,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294476</t>
+          <t>2021-10-05 14:22:16.289201</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7237,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294478</t>
+          <t>2021-10-05 14:22:16.289203</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7267,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294481</t>
+          <t>2021-10-05 14:22:16.289206</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7297,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294484</t>
+          <t>2021-10-05 14:22:16.289208</t>
         </is>
       </c>
     </row>
@@ -7326,7 +7327,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294486</t>
+          <t>2021-10-05 14:22:16.289210</t>
         </is>
       </c>
     </row>
@@ -7356,7 +7357,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294489</t>
+          <t>2021-10-05 14:22:16.289213</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7387,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294491</t>
+          <t>2021-10-05 14:22:16.289215</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7417,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294494</t>
+          <t>2021-10-05 14:22:16.289217</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7447,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294497</t>
+          <t>2021-10-05 14:22:16.289221</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7477,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294500</t>
+          <t>2021-10-05 14:22:16.289224</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7507,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294503</t>
+          <t>2021-10-05 14:22:16.289226</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7537,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294505</t>
+          <t>2021-10-05 14:22:16.289229</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7567,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294508</t>
+          <t>2021-10-05 14:22:16.289231</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7597,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294510</t>
+          <t>2021-10-05 14:22:16.289233</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7627,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294513</t>
+          <t>2021-10-05 14:22:16.289235</t>
         </is>
       </c>
     </row>
@@ -7656,7 +7657,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294516</t>
+          <t>2021-10-05 14:22:16.289238</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7687,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294518</t>
+          <t>2021-10-05 14:22:16.289240</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7717,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294521</t>
+          <t>2021-10-05 14:22:16.289243</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7747,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294523</t>
+          <t>2021-10-05 14:22:16.289245</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7777,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294526</t>
+          <t>2021-10-05 14:22:16.289247</t>
         </is>
       </c>
     </row>
@@ -7806,7 +7807,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294528</t>
+          <t>2021-10-05 14:22:16.289250</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7837,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294531</t>
+          <t>2021-10-05 14:22:16.289252</t>
         </is>
       </c>
     </row>
@@ -7866,7 +7867,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294533</t>
+          <t>2021-10-05 14:22:16.289254</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7897,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294536</t>
+          <t>2021-10-05 14:22:16.289257</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7927,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294538</t>
+          <t>2021-10-05 14:22:16.289259</t>
         </is>
       </c>
     </row>
@@ -7956,7 +7957,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294541</t>
+          <t>2021-10-05 14:22:16.289261</t>
         </is>
       </c>
     </row>
@@ -7986,7 +7987,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294543</t>
+          <t>2021-10-05 14:22:16.289264</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8017,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294546</t>
+          <t>2021-10-05 14:22:16.289266</t>
         </is>
       </c>
     </row>
@@ -8046,7 +8047,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294548</t>
+          <t>2021-10-05 14:22:16.289268</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8077,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294551</t>
+          <t>2021-10-05 14:22:16.289271</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8107,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294554</t>
+          <t>2021-10-05 14:22:16.289273</t>
         </is>
       </c>
     </row>
@@ -8136,7 +8137,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294556</t>
+          <t>2021-10-05 14:22:16.289275</t>
         </is>
       </c>
     </row>
@@ -8166,7 +8167,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294559</t>
+          <t>2021-10-05 14:22:16.289278</t>
         </is>
       </c>
     </row>
@@ -8196,7 +8197,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294561</t>
+          <t>2021-10-05 14:22:16.289280</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8227,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294564</t>
+          <t>2021-10-05 14:22:16.289283</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8257,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294566</t>
+          <t>2021-10-05 14:22:16.289285</t>
         </is>
       </c>
     </row>
@@ -8286,7 +8287,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294569</t>
+          <t>2021-10-05 14:22:16.289287</t>
         </is>
       </c>
     </row>
@@ -8316,7 +8317,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294571</t>
+          <t>2021-10-05 14:22:16.289289</t>
         </is>
       </c>
     </row>
@@ -8346,7 +8347,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294574</t>
+          <t>2021-10-05 14:22:16.289292</t>
         </is>
       </c>
     </row>
@@ -8376,7 +8377,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294577</t>
+          <t>2021-10-05 14:22:16.289295</t>
         </is>
       </c>
     </row>
@@ -8406,7 +8407,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294579</t>
+          <t>2021-10-05 14:22:16.289297</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8437,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294582</t>
+          <t>2021-10-05 14:22:16.289299</t>
         </is>
       </c>
     </row>
@@ -8466,7 +8467,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294584</t>
+          <t>2021-10-05 14:22:16.289302</t>
         </is>
       </c>
     </row>
@@ -8496,7 +8497,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294587</t>
+          <t>2021-10-05 14:22:16.289304</t>
         </is>
       </c>
     </row>
@@ -8526,7 +8527,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294590</t>
+          <t>2021-10-05 14:22:16.289307</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8557,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294592</t>
+          <t>2021-10-05 14:22:16.289309</t>
         </is>
       </c>
     </row>
@@ -8586,7 +8587,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294595</t>
+          <t>2021-10-05 14:22:16.289312</t>
         </is>
       </c>
     </row>
@@ -8616,7 +8617,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294597</t>
+          <t>2021-10-05 14:22:16.289314</t>
         </is>
       </c>
     </row>
@@ -8646,7 +8647,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294600</t>
+          <t>2021-10-05 14:22:16.289317</t>
         </is>
       </c>
     </row>
@@ -8676,7 +8677,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294602</t>
+          <t>2021-10-05 14:22:16.289319</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8707,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294605</t>
+          <t>2021-10-05 14:22:16.289321</t>
         </is>
       </c>
     </row>
@@ -8736,7 +8737,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294608</t>
+          <t>2021-10-05 14:22:16.289323</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8767,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294610</t>
+          <t>2021-10-05 14:22:16.289326</t>
         </is>
       </c>
     </row>
@@ -8796,7 +8797,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294613</t>
+          <t>2021-10-05 14:22:16.289328</t>
         </is>
       </c>
     </row>
@@ -8826,7 +8827,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294615</t>
+          <t>2021-10-05 14:22:16.289330</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8857,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294618</t>
+          <t>2021-10-05 14:22:16.289333</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8887,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294620</t>
+          <t>2021-10-05 14:22:16.289335</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8917,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294623</t>
+          <t>2021-10-05 14:22:16.289338</t>
         </is>
       </c>
     </row>
@@ -8946,7 +8947,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294625</t>
+          <t>2021-10-05 14:22:16.289340</t>
         </is>
       </c>
     </row>
@@ -8976,7 +8977,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294628</t>
+          <t>2021-10-05 14:22:16.289342</t>
         </is>
       </c>
     </row>
@@ -9006,7 +9007,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294630</t>
+          <t>2021-10-05 14:22:16.289345</t>
         </is>
       </c>
     </row>
@@ -9036,7 +9037,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294633</t>
+          <t>2021-10-05 14:22:16.289347</t>
         </is>
       </c>
     </row>
@@ -9066,7 +9067,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294635</t>
+          <t>2021-10-05 14:22:16.289350</t>
         </is>
       </c>
     </row>
@@ -9096,7 +9097,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294638</t>
+          <t>2021-10-05 14:22:16.289352</t>
         </is>
       </c>
     </row>
@@ -9126,7 +9127,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294640</t>
+          <t>2021-10-05 14:22:16.289354</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9157,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294643</t>
+          <t>2021-10-05 14:22:16.289357</t>
         </is>
       </c>
     </row>
@@ -9186,7 +9187,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294646</t>
+          <t>2021-10-05 14:22:16.289359</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9217,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294648</t>
+          <t>2021-10-05 14:22:16.289361</t>
         </is>
       </c>
     </row>
@@ -9246,7 +9247,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294651</t>
+          <t>2021-10-05 14:22:16.289363</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9277,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294653</t>
+          <t>2021-10-05 14:22:16.289366</t>
         </is>
       </c>
     </row>
@@ -9306,7 +9307,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294656</t>
+          <t>2021-10-05 14:22:16.289368</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9337,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294658</t>
+          <t>2021-10-05 14:22:16.289371</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9367,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294661</t>
+          <t>2021-10-05 14:22:16.289373</t>
         </is>
       </c>
     </row>
@@ -9396,7 +9397,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294664</t>
+          <t>2021-10-05 14:22:16.289375</t>
         </is>
       </c>
     </row>
@@ -9426,7 +9427,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294666</t>
+          <t>2021-10-05 14:22:16.289378</t>
         </is>
       </c>
     </row>
@@ -9456,7 +9457,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294669</t>
+          <t>2021-10-05 14:22:16.289380</t>
         </is>
       </c>
     </row>
@@ -9486,7 +9487,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294671</t>
+          <t>2021-10-05 14:22:16.289382</t>
         </is>
       </c>
     </row>
@@ -9516,7 +9517,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294674</t>
+          <t>2021-10-05 14:22:16.289385</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9547,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294676</t>
+          <t>2021-10-05 14:22:16.289387</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9577,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294679</t>
+          <t>2021-10-05 14:22:16.289389</t>
         </is>
       </c>
     </row>
@@ -9606,7 +9607,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294681</t>
+          <t>2021-10-05 14:22:16.289392</t>
         </is>
       </c>
     </row>
@@ -9636,7 +9637,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294684</t>
+          <t>2021-10-05 14:22:16.289394</t>
         </is>
       </c>
     </row>
@@ -9666,7 +9667,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294687</t>
+          <t>2021-10-05 14:22:16.289396</t>
         </is>
       </c>
     </row>
@@ -9696,7 +9697,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294689</t>
+          <t>2021-10-05 14:22:16.289399</t>
         </is>
       </c>
     </row>
@@ -9726,7 +9727,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294694</t>
+          <t>2021-10-05 14:22:16.289403</t>
         </is>
       </c>
     </row>
@@ -9756,7 +9757,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294697</t>
+          <t>2021-10-05 14:22:16.289406</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9787,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294700</t>
+          <t>2021-10-05 14:22:16.289408</t>
         </is>
       </c>
     </row>
@@ -9816,7 +9817,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294702</t>
+          <t>2021-10-05 14:22:16.289411</t>
         </is>
       </c>
     </row>
@@ -9846,7 +9847,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294705</t>
+          <t>2021-10-05 14:22:16.289414</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9877,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294708</t>
+          <t>2021-10-05 14:22:16.289416</t>
         </is>
       </c>
     </row>
@@ -9906,7 +9907,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294710</t>
+          <t>2021-10-05 14:22:16.289419</t>
         </is>
       </c>
     </row>
@@ -9936,7 +9937,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294713</t>
+          <t>2021-10-05 14:22:16.289421</t>
         </is>
       </c>
     </row>
@@ -9966,7 +9967,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294716</t>
+          <t>2021-10-05 14:22:16.289423</t>
         </is>
       </c>
     </row>
@@ -9996,7 +9997,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294718</t>
+          <t>2021-10-05 14:22:16.289426</t>
         </is>
       </c>
     </row>
@@ -10026,7 +10027,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294721</t>
+          <t>2021-10-05 14:22:16.289428</t>
         </is>
       </c>
     </row>
@@ -10056,7 +10057,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294723</t>
+          <t>2021-10-05 14:22:16.289431</t>
         </is>
       </c>
     </row>
@@ -10086,7 +10087,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294726</t>
+          <t>2021-10-05 14:22:16.289433</t>
         </is>
       </c>
     </row>
@@ -10116,7 +10117,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294729</t>
+          <t>2021-10-05 14:22:16.289435</t>
         </is>
       </c>
     </row>
@@ -10146,7 +10147,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294731</t>
+          <t>2021-10-05 14:22:16.289438</t>
         </is>
       </c>
     </row>
@@ -10176,7 +10177,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294734</t>
+          <t>2021-10-05 14:22:16.289440</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10207,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294736</t>
+          <t>2021-10-05 14:22:16.289442</t>
         </is>
       </c>
     </row>
@@ -10236,7 +10237,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294739</t>
+          <t>2021-10-05 14:22:16.289444</t>
         </is>
       </c>
     </row>
@@ -10266,7 +10267,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294741</t>
+          <t>2021-10-05 14:22:16.289447</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10297,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294744</t>
+          <t>2021-10-05 14:22:16.289449</t>
         </is>
       </c>
     </row>
@@ -10326,7 +10327,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294746</t>
+          <t>2021-10-05 14:22:16.289451</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10357,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294749</t>
+          <t>2021-10-05 14:22:16.289454</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10387,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294751</t>
+          <t>2021-10-05 14:22:16.289456</t>
         </is>
       </c>
     </row>
@@ -10416,7 +10417,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294754</t>
+          <t>2021-10-05 14:22:16.289458</t>
         </is>
       </c>
     </row>
@@ -10446,7 +10447,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294757</t>
+          <t>2021-10-05 14:22:16.289461</t>
         </is>
       </c>
     </row>
@@ -10476,7 +10477,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294759</t>
+          <t>2021-10-05 14:22:16.289463</t>
         </is>
       </c>
     </row>
@@ -10506,7 +10507,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294762</t>
+          <t>2021-10-05 14:22:16.289465</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10537,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294764</t>
+          <t>2021-10-05 14:22:16.289467</t>
         </is>
       </c>
     </row>
@@ -10566,7 +10567,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294767</t>
+          <t>2021-10-05 14:22:16.289470</t>
         </is>
       </c>
     </row>
@@ -10596,7 +10597,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294769</t>
+          <t>2021-10-05 14:22:16.289472</t>
         </is>
       </c>
     </row>
@@ -10626,7 +10627,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294772</t>
+          <t>2021-10-05 14:22:16.289474</t>
         </is>
       </c>
     </row>
@@ -10656,7 +10657,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294774</t>
+          <t>2021-10-05 14:22:16.289477</t>
         </is>
       </c>
     </row>
@@ -10686,7 +10687,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294777</t>
+          <t>2021-10-05 14:22:16.289480</t>
         </is>
       </c>
     </row>
@@ -10716,7 +10717,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294780</t>
+          <t>2021-10-05 14:22:16.289482</t>
         </is>
       </c>
     </row>
@@ -10746,7 +10747,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294782</t>
+          <t>2021-10-05 14:22:16.289485</t>
         </is>
       </c>
     </row>
@@ -10776,7 +10777,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294785</t>
+          <t>2021-10-05 14:22:16.289487</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10807,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294787</t>
+          <t>2021-10-05 14:22:16.289489</t>
         </is>
       </c>
     </row>
@@ -10836,7 +10837,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294790</t>
+          <t>2021-10-05 14:22:16.289492</t>
         </is>
       </c>
     </row>
@@ -10866,7 +10867,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294792</t>
+          <t>2021-10-05 14:22:16.289494</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10897,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294795</t>
+          <t>2021-10-05 14:22:16.289497</t>
         </is>
       </c>
     </row>
@@ -10926,7 +10927,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294798</t>
+          <t>2021-10-05 14:22:16.289499</t>
         </is>
       </c>
     </row>
@@ -10956,7 +10957,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294800</t>
+          <t>2021-10-05 14:22:16.289501</t>
         </is>
       </c>
     </row>
@@ -10986,7 +10987,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294803</t>
+          <t>2021-10-05 14:22:16.289503</t>
         </is>
       </c>
     </row>
@@ -11016,7 +11017,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294805</t>
+          <t>2021-10-05 14:22:16.289506</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11047,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294809</t>
+          <t>2021-10-05 14:22:16.289509</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11077,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294812</t>
+          <t>2021-10-05 14:22:16.289512</t>
         </is>
       </c>
     </row>
@@ -11106,7 +11107,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294815</t>
+          <t>2021-10-05 14:22:16.289514</t>
         </is>
       </c>
     </row>
@@ -11136,7 +11137,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294817</t>
+          <t>2021-10-05 14:22:16.289516</t>
         </is>
       </c>
     </row>
@@ -11166,7 +11167,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294820</t>
+          <t>2021-10-05 14:22:16.289523</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11197,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294822</t>
+          <t>2021-10-05 14:22:16.289526</t>
         </is>
       </c>
     </row>
@@ -11226,7 +11227,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294825</t>
+          <t>2021-10-05 14:22:16.289528</t>
         </is>
       </c>
     </row>
@@ -11256,7 +11257,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294827</t>
+          <t>2021-10-05 14:22:16.289530</t>
         </is>
       </c>
     </row>
@@ -11286,7 +11287,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294830</t>
+          <t>2021-10-05 14:22:16.289533</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11317,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294833</t>
+          <t>2021-10-05 14:22:16.289535</t>
         </is>
       </c>
     </row>
@@ -11346,7 +11347,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294835</t>
+          <t>2021-10-05 14:22:16.289537</t>
         </is>
       </c>
     </row>
@@ -11376,7 +11377,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294838</t>
+          <t>2021-10-05 14:22:16.289540</t>
         </is>
       </c>
     </row>
@@ -11406,7 +11407,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294840</t>
+          <t>2021-10-05 14:22:16.289542</t>
         </is>
       </c>
     </row>
@@ -11436,7 +11437,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294843</t>
+          <t>2021-10-05 14:22:16.289545</t>
         </is>
       </c>
     </row>
@@ -11466,7 +11467,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294845</t>
+          <t>2021-10-05 14:22:16.289547</t>
         </is>
       </c>
     </row>
@@ -11496,7 +11497,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294848</t>
+          <t>2021-10-05 14:22:16.289549</t>
         </is>
       </c>
     </row>
@@ -11526,7 +11527,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294851</t>
+          <t>2021-10-05 14:22:16.289552</t>
         </is>
       </c>
     </row>
@@ -11556,7 +11557,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294853</t>
+          <t>2021-10-05 14:22:16.289555</t>
         </is>
       </c>
     </row>
@@ -11586,7 +11587,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294856</t>
+          <t>2021-10-05 14:22:16.289557</t>
         </is>
       </c>
     </row>
@@ -11616,7 +11617,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294858</t>
+          <t>2021-10-05 14:22:16.289560</t>
         </is>
       </c>
     </row>
@@ -11646,7 +11647,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294861</t>
+          <t>2021-10-05 14:22:16.289562</t>
         </is>
       </c>
     </row>
@@ -11676,7 +11677,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294863</t>
+          <t>2021-10-05 14:22:16.289564</t>
         </is>
       </c>
     </row>
@@ -11706,7 +11707,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294866</t>
+          <t>2021-10-05 14:22:16.289567</t>
         </is>
       </c>
     </row>
@@ -11736,7 +11737,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294868</t>
+          <t>2021-10-05 14:22:16.289569</t>
         </is>
       </c>
     </row>
@@ -11766,7 +11767,91 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:43.294871</t>
+          <t>2021-10-05 14:22:16.289571</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Possible mitochondrial disorder - nuclear genes</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>539</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-08-23T15:09:21.614113Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:22:16.285510</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.genomicsengland.co.uk/api/v1/panels/539/?format=json</t>
         </is>
       </c>
     </row>
